--- a/src/analises/result/excel/mefs_reais/fsm_real-results.xlsx
+++ b/src/analises/result/excel/mefs_reais/fsm_real-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_reais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6446475C-0515-264C-AEBB-4C313193A1F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D50448-240B-4D46-AC46-8022FF0B466F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="460" windowWidth="24620" windowHeight="19540" xr2:uid="{154828B1-B81C-B140-BF4D-AC558092AFF2}"/>
+    <workbookView xWindow="17420" yWindow="460" windowWidth="20980" windowHeight="19520" xr2:uid="{154828B1-B81C-B140-BF4D-AC558092AFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,18 +251,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +270,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,18 +292,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1089,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,7 +1853,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>455.34166670000002</c:v>
+                  <c:v>455.34166666666658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1960,7 +1959,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,7 +2288,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>53.98760274</c:v>
+                  <c:v>53.987602743592845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,7 +2723,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45.067219250000001</c:v>
+                  <c:v>45.067219253415878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3594,7 +3593,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4403.1916670000001</c:v>
+                  <c:v>4403.1916666666648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,7 +4019,7 @@
                   <c:v>436.17500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.98760274</c:v>
+                  <c:v>53.987602743592845</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5872.4250000000002</c:v>
@@ -5233,13 +5232,13 @@
                   <c:v>488.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>455.34166670000002</c:v>
+                  <c:v>455.34166666666658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.067219250000001</c:v>
+                  <c:v>45.067219253415878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4403.1916670000001</c:v>
+                  <c:v>4403.1916666666648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5415,19 +5414,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347.45</c:v>
+                  <c:v>317.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -6348,10 +6347,10 @@
                   <c:v>488.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>455.34166670000002</c:v>
+                  <c:v>455.34166666666658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.067219250000001</c:v>
+                  <c:v>45.067219253415878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6518,19 +6517,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347.45</c:v>
+                  <c:v>317.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -7016,7 +7015,7 @@
                   <c:v>436.17500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.98760274</c:v>
+                  <c:v>53.987602743592845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8701,7 +8700,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>347.45</c:v>
+                  <c:v>317.39999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9571,7 +9570,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10441,7 +10440,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>346.45</c:v>
+                  <c:v>316.39999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25948,8 +25947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5CA425-0756-5841-8095-A861F5591D96}">
   <dimension ref="A1:BA114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25969,131 +25968,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="68" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="Z1" s="13" t="s">
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="Z1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="14" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="T2" s="14" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="Z2" s="14" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="Z2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AE2" s="5" t="s">
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AE2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AQ2" s="5" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AQ2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -26120,7 +26119,7 @@
       <c r="I3">
         <v>725.87012987012895</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="9"/>
       <c r="K3">
         <v>174</v>
       </c>
@@ -26147,77 +26146,77 @@
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>SUM(B5:B24)/20</f>
         <v>1.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f t="shared" ref="C4:I4" si="0">SUM(C5:C24)/20</f>
         <v>632.95000000000005</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>631.45000000000005</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>474.35</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>436.17500000000001</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>53.987602743592845</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>5872.4250000000002</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="3">
+      <c r="J4" s="9"/>
+      <c r="K4" s="2">
         <f>SUM(K5:K24)/20</f>
         <v>6.2</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:R4" si="1">SUM(L5:L24)/20</f>
+      <c r="L4" s="2">
+        <f>SUM(L5:L24)/20</f>
         <v>1009.5</v>
       </c>
-      <c r="M4" s="3">
-        <f t="shared" si="1"/>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:R4" si="1">SUM(M5:M24)/20</f>
         <v>1003.3</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
         <v>91.25</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f t="shared" si="1"/>
         <v>249.6</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f t="shared" si="1"/>
         <v>160.90220598845576</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <f t="shared" si="1"/>
         <v>60.744625320273997</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <f t="shared" si="1"/>
         <v>4404.7197492784971</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5">
@@ -26244,7 +26243,7 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="9"/>
       <c r="K5">
         <v>1</v>
       </c>
@@ -26271,7 +26270,7 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>10</v>
       </c>
       <c r="B6">
@@ -26298,7 +26297,7 @@
       <c r="I6">
         <v>11400.5</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="9"/>
       <c r="K6">
         <v>7</v>
       </c>
@@ -26325,7 +26324,7 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>11</v>
       </c>
       <c r="B7">
@@ -26352,7 +26351,7 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="9"/>
       <c r="K7">
         <v>6</v>
       </c>
@@ -26379,7 +26378,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>12</v>
       </c>
       <c r="B8">
@@ -26406,7 +26405,7 @@
       <c r="I8">
         <v>10952</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="9"/>
       <c r="K8">
         <v>7</v>
       </c>
@@ -26433,7 +26432,7 @@
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>13</v>
       </c>
       <c r="B9">
@@ -26460,7 +26459,7 @@
       <c r="I9">
         <v>10952</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="9"/>
       <c r="K9">
         <v>7</v>
       </c>
@@ -26487,7 +26486,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>14</v>
       </c>
       <c r="B10">
@@ -26514,7 +26513,7 @@
       <c r="I10">
         <v>10952</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="9"/>
       <c r="K10">
         <v>7</v>
       </c>
@@ -26541,7 +26540,7 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>15</v>
       </c>
       <c r="B11">
@@ -26568,7 +26567,7 @@
       <c r="I11">
         <v>10952</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="9"/>
       <c r="K11">
         <v>7</v>
       </c>
@@ -26595,7 +26594,7 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>16</v>
       </c>
       <c r="B12">
@@ -26622,7 +26621,7 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="9"/>
       <c r="K12">
         <v>6</v>
       </c>
@@ -26649,7 +26648,7 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>17</v>
       </c>
       <c r="B13">
@@ -26676,7 +26675,7 @@
       <c r="I13">
         <v>10952</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="9"/>
       <c r="K13">
         <v>7</v>
       </c>
@@ -26703,7 +26702,7 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>18</v>
       </c>
       <c r="B14">
@@ -26730,7 +26729,7 @@
       <c r="I14">
         <v>10952</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="9"/>
       <c r="K14">
         <v>7</v>
       </c>
@@ -26757,7 +26756,7 @@
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>19</v>
       </c>
       <c r="B15">
@@ -26784,7 +26783,7 @@
       <c r="I15">
         <v>10952</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="9"/>
       <c r="K15">
         <v>7</v>
       </c>
@@ -26811,7 +26810,7 @@
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16">
@@ -26838,7 +26837,7 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="9"/>
       <c r="K16">
         <v>2</v>
       </c>
@@ -26865,7 +26864,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>20</v>
       </c>
       <c r="B17">
@@ -26892,7 +26891,7 @@
       <c r="I17">
         <v>10952</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="9"/>
       <c r="K17">
         <v>7</v>
       </c>
@@ -26919,7 +26918,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>3</v>
       </c>
       <c r="B18">
@@ -26946,7 +26945,7 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="9"/>
       <c r="K18">
         <v>4</v>
       </c>
@@ -26971,21 +26970,21 @@
       <c r="R18">
         <v>3418</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="9"/>
-      <c r="Z18" s="14" t="s">
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="7"/>
+      <c r="Z18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19">
@@ -27012,7 +27011,7 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="9"/>
       <c r="K19">
         <v>5</v>
       </c>
@@ -27039,7 +27038,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>5</v>
       </c>
       <c r="B20">
@@ -27066,7 +27065,7 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="9"/>
       <c r="K20">
         <v>8</v>
       </c>
@@ -27093,7 +27092,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>6</v>
       </c>
       <c r="B21">
@@ -27120,7 +27119,7 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="9"/>
       <c r="K21">
         <v>11</v>
       </c>
@@ -27147,7 +27146,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>7</v>
       </c>
       <c r="B22">
@@ -27174,7 +27173,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="9"/>
       <c r="K22">
         <v>6</v>
       </c>
@@ -27201,7 +27200,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>8</v>
       </c>
       <c r="B23">
@@ -27228,7 +27227,7 @@
       <c r="I23">
         <v>18432</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="9"/>
       <c r="K23">
         <v>9</v>
       </c>
@@ -27255,7 +27254,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>9</v>
       </c>
       <c r="B24">
@@ -27282,7 +27281,7 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="J24" s="9"/>
       <c r="K24">
         <v>3</v>
       </c>
@@ -27309,3725 +27308,3772 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="14" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1800</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1778</v>
-      </c>
-      <c r="E26" s="1">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1">
-        <v>113</v>
-      </c>
-      <c r="G26" s="1">
-        <v>80.818181820000007</v>
-      </c>
-      <c r="H26" s="1">
-        <v>26.941977099999999</v>
-      </c>
-      <c r="I26" s="1">
-        <v>725.87012990000005</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="1">
-        <v>22</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1800</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1778</v>
-      </c>
-      <c r="N26" s="1">
-        <v>16</v>
-      </c>
-      <c r="O26" s="1">
-        <v>113</v>
-      </c>
-      <c r="P26" s="1">
-        <v>80.818181820000007</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>26.941977099999999</v>
-      </c>
-      <c r="R26" s="1">
-        <v>725.87012990000005</v>
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>1951</v>
+      </c>
+      <c r="D26">
+        <v>1930</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>129</v>
+      </c>
+      <c r="G26">
+        <v>91.904761904761898</v>
+      </c>
+      <c r="H26">
+        <v>24.143124822410101</v>
+      </c>
+      <c r="I26">
+        <v>582.89047619047597</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26">
+        <v>85</v>
+      </c>
+      <c r="L26">
+        <v>9163</v>
+      </c>
+      <c r="M26">
+        <v>9078</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <v>143</v>
+      </c>
+      <c r="P26">
+        <v>106.8</v>
+      </c>
+      <c r="Q26">
+        <v>20.5946132577937</v>
+      </c>
+      <c r="R26">
+        <v>424.13809523809499</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
+        <f>SUM(B28:B47)/20</f>
         <v>1.5</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:I27" si="2">SUM(C28:C47)/20</f>
         <v>632.95000000000005</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
         <v>631.45000000000005</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
         <v>398</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
         <v>474.35</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
         <v>436.17500000000001</v>
       </c>
-      <c r="H27" s="3">
-        <v>53.98760274</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="H27" s="2">
+        <f t="shared" si="2"/>
+        <v>53.987602743592845</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="2"/>
         <v>5872.4250000000002</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="3">
+      <c r="J27" s="9"/>
+      <c r="K27" s="2">
+        <f>SUM(K28:K47)/20</f>
         <v>1.95</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
+        <f t="shared" ref="L27:R27" si="3">SUM(L28:L47)/20</f>
         <v>905.5</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
+        <f t="shared" si="3"/>
         <v>903.55</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
+        <f t="shared" si="3"/>
         <v>419.65</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
+        <f t="shared" si="3"/>
         <v>488.6</v>
       </c>
-      <c r="P27" s="3">
-        <v>455.34166670000002</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>45.067219250000001</v>
-      </c>
-      <c r="R27" s="3">
-        <v>4403.1916670000001</v>
+      <c r="P27" s="2">
+        <f t="shared" si="3"/>
+        <v>455.34166666666658</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="3"/>
+        <v>45.067219253415878</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="3"/>
+        <v>4403.1916666666648</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>1</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>93</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>92</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>92</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>92</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>92</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="1">
+      <c r="J28" s="9"/>
+      <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
         <v>105</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
         <v>104</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28">
         <v>104</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28">
         <v>104</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28">
         <v>104</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>10</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>783</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>781</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>315</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>466</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>390.5</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>106.773123959168</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>11400.5</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="1">
+      <c r="J29" s="9"/>
+      <c r="K29">
         <v>2</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
         <v>1082</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
         <v>1080</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <v>523</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29">
         <v>557</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29">
         <v>540</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29">
         <v>24.0416305603426</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29">
         <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>11</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>536</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>535</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>535</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>535</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>535</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="1">
+      <c r="J30" s="9"/>
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>1003</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <v>1001</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <v>364</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30">
         <v>637</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30">
         <v>500.5</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30">
         <v>193.04015126392699</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30">
         <v>37264.5</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>12</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>774</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>772</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>312</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>460</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
         <v>386</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31">
         <v>104.651803615609</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>10952</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="1">
+      <c r="J31" s="9"/>
+      <c r="K31">
         <v>2</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31">
         <v>1109</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
         <v>1107</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31">
         <v>534</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31">
         <v>573</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31">
         <v>553.5</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31">
         <v>27.577164466275299</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31">
         <v>760.5</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>13</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>774</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>772</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>312</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>460</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
         <v>386</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32">
         <v>104.651803615609</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>10952</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="1">
+      <c r="J32" s="9"/>
+      <c r="K32">
         <v>2</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32">
         <v>1106</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32">
         <v>1104</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32">
         <v>533</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32">
         <v>571</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32">
         <v>552</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32">
         <v>26.870057685088799</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32">
         <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>14</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>774</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>772</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>312</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>460</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
         <v>386</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <v>104.651803615609</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>10952</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="1">
+      <c r="J33" s="9"/>
+      <c r="K33">
         <v>2</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33">
         <v>1103</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
         <v>1101</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33">
         <v>532</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33">
         <v>569</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33">
         <v>550.5</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33">
         <v>26.1629509039022</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33">
         <v>684.5</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>15</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>774</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>772</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>312</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>460</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>386</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>104.651803615609</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>10952</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="1">
+      <c r="J34" s="9"/>
+      <c r="K34">
         <v>2</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34">
         <v>1103</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34">
         <v>1101</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34">
         <v>532</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34">
         <v>569</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34">
         <v>550.5</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34">
         <v>26.1629509039022</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34">
         <v>684.5</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="T34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="9"/>
-      <c r="Z34" s="7" t="s">
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="7"/>
+      <c r="Z34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="9"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="7"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>16</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>536</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>535</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>535</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>535</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
         <v>535</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="1">
+      <c r="J35" s="9"/>
+      <c r="K35">
         <v>2</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35">
         <v>1239</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35">
         <v>1237</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35">
         <v>600</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35">
         <v>637</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35">
         <v>618.5</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35">
         <v>26.1629509039022</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35">
         <v>684.5</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>17</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>774</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>772</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>312</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>460</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
         <v>386</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36">
         <v>104.651803615609</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>10952</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="1">
+      <c r="J36" s="9"/>
+      <c r="K36">
         <v>3</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36">
         <v>1060</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36">
         <v>1057</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36">
         <v>184</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36">
         <v>456</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36">
         <v>352.33333333333297</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36">
         <v>147.07934366638</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36">
         <v>21632.333333333299</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>18</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>774</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>772</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>312</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>460</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
         <v>386</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37">
         <v>104.651803615609</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>10952</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="1">
+      <c r="J37" s="9"/>
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37">
         <v>1109</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37">
         <v>1107</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37">
         <v>534</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37">
         <v>573</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37">
         <v>553.5</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37">
         <v>27.577164466275299</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37">
         <v>760.5</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>19</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>774</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>772</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>312</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>460</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
         <v>386</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
         <v>104.651803615609</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>10952</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="1">
+      <c r="J38" s="9"/>
+      <c r="K38">
         <v>2</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38">
         <v>1109</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38">
         <v>1107</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38">
         <v>534</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38">
         <v>573</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38">
         <v>553.5</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38">
         <v>27.577164466275299</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38">
         <v>760.5</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>2</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>225</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>224</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>224</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>224</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
         <v>224</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="1">
+      <c r="J39" s="9"/>
+      <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39">
         <v>216</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39">
         <v>215</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39">
         <v>215</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39">
         <v>215</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39">
         <v>215</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>20</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>774</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>772</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>312</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>460</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
         <v>386</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40">
         <v>104.651803615609</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>10952</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="1">
+      <c r="J40" s="9"/>
+      <c r="K40">
         <v>2</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40">
         <v>1109</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40">
         <v>1107</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40">
         <v>534</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40">
         <v>573</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40">
         <v>553.5</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40">
         <v>27.577164466275299</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40">
         <v>760.5</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>3</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>553</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>552</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>552</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>552</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
         <v>552</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="1">
+      <c r="J41" s="9"/>
+      <c r="K41">
         <v>2</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41">
         <v>575</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41">
         <v>573</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41">
         <v>275</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41">
         <v>298</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41">
         <v>286.5</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41">
         <v>16.263455967290501</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41">
         <v>264.5</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>4</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>507</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>506</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>506</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>506</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
         <v>506</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="1">
+      <c r="J42" s="9"/>
+      <c r="K42">
         <v>3</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42">
         <v>621</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42">
         <v>618</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42">
         <v>142</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42">
         <v>286</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42">
         <v>206</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42">
         <v>73.321211119293395</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42">
         <v>5376</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>5</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>770</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>769</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>769</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>769</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
         <v>769</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="1">
+      <c r="J43" s="9"/>
+      <c r="K43">
         <v>2</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43">
         <v>1141</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43">
         <v>1139</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43">
         <v>505</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43">
         <v>634</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43">
         <v>569.5</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43">
         <v>91.2167747730646</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43">
         <v>8320.5</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>6</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>717</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>716</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>716</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>716</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
         <v>716</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="1">
+      <c r="J44" s="9"/>
+      <c r="K44">
         <v>2</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44">
         <v>1128</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44">
         <v>1126</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44">
         <v>553</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44">
         <v>573</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44">
         <v>563</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44">
         <v>14.142135623730899</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44">
         <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>7</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>559</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>558</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>558</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>558</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>558</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="1">
+      <c r="J45" s="9"/>
+      <c r="K45">
         <v>2</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45">
         <v>923</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45">
         <v>921</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45">
         <v>428</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45">
         <v>493</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45">
         <v>460.5</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45">
         <v>45.961940777125498</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45">
         <v>2112.5</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>8</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>856</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>854</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>331</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>523</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>427</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>135.764501987817</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>18432</v>
       </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="1">
+      <c r="J46" s="9"/>
+      <c r="K46">
         <v>2</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46">
         <v>886</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
         <v>884</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46">
         <v>385</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46">
         <v>499</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46">
         <v>442</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46">
         <v>80.610173055266401</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46">
         <v>6498</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>9</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>332</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>331</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>331</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>331</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>331</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="1">
+      <c r="J47" s="9"/>
+      <c r="K47">
         <v>1</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47">
         <v>383</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
         <v>382</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47">
         <v>382</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47">
         <v>382</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47">
         <v>382</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="14" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="1">
-        <v>22</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1800</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1778</v>
-      </c>
-      <c r="E49" s="1">
-        <v>16</v>
-      </c>
-      <c r="F49" s="1">
-        <v>113</v>
-      </c>
-      <c r="G49" s="1">
-        <v>80.818181820000007</v>
-      </c>
-      <c r="H49" s="1">
-        <v>26.941977099999999</v>
-      </c>
-      <c r="I49" s="1">
-        <v>725.87012990000005</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="1">
-        <v>22</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1800</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1778</v>
-      </c>
-      <c r="N49" s="1">
-        <v>16</v>
-      </c>
-      <c r="O49" s="1">
-        <v>113</v>
-      </c>
-      <c r="P49" s="1">
-        <v>80.818181820000007</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>26.941977099999999</v>
-      </c>
-      <c r="R49" s="1">
-        <v>725.87012990000005</v>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>3655</v>
+      </c>
+      <c r="D49">
+        <v>3654</v>
+      </c>
+      <c r="E49">
+        <v>3654</v>
+      </c>
+      <c r="F49">
+        <v>3654</v>
+      </c>
+      <c r="G49">
+        <v>3654</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>6458</v>
+      </c>
+      <c r="M49">
+        <v>6456</v>
+      </c>
+      <c r="N49">
+        <v>3228</v>
+      </c>
+      <c r="O49">
+        <v>3228</v>
+      </c>
+      <c r="P49">
+        <v>3228</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
+        <f>SUM(B51:B70)/20</f>
         <v>1</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
+        <f t="shared" ref="C50:I50" si="4">SUM(C51:C70)/20</f>
         <v>488.9</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
+        <f t="shared" si="4"/>
         <v>487.9</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
+        <f t="shared" si="4"/>
         <v>487.9</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
+        <f t="shared" si="4"/>
         <v>487.9</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
+        <f t="shared" si="4"/>
         <v>487.9</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="3">
+      <c r="J50" s="9"/>
+      <c r="K50" s="2">
+        <f>SUM(K51:K70)/20</f>
         <v>1</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="2">
+        <f t="shared" ref="L50:R50" si="5">SUM(L51:L70)/20</f>
         <v>317.39999999999998</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
+        <f t="shared" si="5"/>
         <v>316.39999999999998</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="2">
+        <f t="shared" si="5"/>
         <v>316.39999999999998</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="2">
+        <f t="shared" si="5"/>
         <v>316.39999999999998</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="2">
+        <f t="shared" si="5"/>
         <v>316.39999999999998</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="Q50" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R50" s="3">
+      <c r="R50" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T50" s="7" t="s">
+      <c r="T50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="9"/>
-      <c r="Z50" s="7" t="s">
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="7"/>
+      <c r="Z50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="9"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="7"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>1</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>83</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>82</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>82</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51">
         <v>82</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
         <v>82</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="1">
+      <c r="J51" s="9"/>
+      <c r="K51">
         <v>1</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51">
         <v>48</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51">
         <v>47</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51">
         <v>47</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51">
         <v>47</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51">
         <v>47</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>10</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>505</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>504</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>504</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52">
         <v>504</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
         <v>504</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="1">
+      <c r="J52" s="9"/>
+      <c r="K52">
         <v>1</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52">
         <v>353</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52">
         <v>352</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52">
         <v>352</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52">
         <v>352</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52">
         <v>352</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>11</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>526</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>525</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>525</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <v>525</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <v>525</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="16"/>
-      <c r="K53" s="1">
+      <c r="J53" s="9"/>
+      <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53">
         <v>387</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53">
         <v>386</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53">
         <v>386</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53">
         <v>386</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53">
         <v>386</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53">
         <v>0</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>12</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>499</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>498</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>498</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54">
         <v>498</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
         <v>498</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="1">
+      <c r="J54" s="9"/>
+      <c r="K54">
         <v>1</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
         <v>367</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54">
         <v>366</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54">
         <v>366</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54">
         <v>366</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54">
         <v>366</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54">
         <v>0</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>13</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>499</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>498</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>498</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <v>498</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <v>498</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="1">
+      <c r="J55" s="9"/>
+      <c r="K55">
         <v>1</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
         <v>367</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55">
         <v>366</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55">
         <v>366</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55">
         <v>366</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55">
         <v>366</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55">
         <v>0</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>14</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>499</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>498</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>498</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <v>498</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <v>498</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="1">
+      <c r="J56" s="9"/>
+      <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
         <v>365</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56">
         <v>364</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56">
         <v>364</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56">
         <v>364</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56">
         <v>364</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56">
         <v>0</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>15</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>499</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>498</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>498</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>498</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <v>498</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="1">
+      <c r="J57" s="9"/>
+      <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57">
         <v>365</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57">
         <v>364</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57">
         <v>364</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57">
         <v>364</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57">
         <v>364</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57">
         <v>0</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>16</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>526</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>525</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>525</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>525</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
         <v>525</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" s="16"/>
-      <c r="K58" s="1">
+      <c r="J58" s="9"/>
+      <c r="K58">
         <v>1</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58">
         <v>387</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58">
         <v>386</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58">
         <v>386</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58">
         <v>386</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58">
         <v>386</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58">
         <v>0</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R58">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>17</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>499</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>498</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>498</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59">
         <v>498</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
         <v>498</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="1">
+      <c r="J59" s="9"/>
+      <c r="K59">
         <v>1</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59">
         <v>367</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59">
         <v>366</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59">
         <v>366</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59">
         <v>366</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59">
         <v>366</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59">
         <v>0</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>18</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>499</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>498</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>498</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>498</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
         <v>498</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="1">
+      <c r="J60" s="9"/>
+      <c r="K60">
         <v>1</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60">
         <v>367</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60">
         <v>366</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60">
         <v>366</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60">
         <v>366</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60">
         <v>366</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q60">
         <v>0</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R60">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>19</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>499</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>498</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>498</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>498</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
         <v>498</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" s="16"/>
-      <c r="K61" s="1">
+      <c r="J61" s="9"/>
+      <c r="K61">
         <v>1</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61">
         <v>367</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61">
         <v>366</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61">
         <v>366</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61">
         <v>366</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P61">
         <v>366</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61">
         <v>0</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>2</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>215</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>214</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>214</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>214</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
         <v>214</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="1">
+      <c r="J62" s="9"/>
+      <c r="K62">
         <v>1</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62">
         <v>117</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62">
         <v>116</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62">
         <v>116</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62">
         <v>116</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62">
         <v>116</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62">
         <v>0</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>20</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>499</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>498</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>498</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
         <v>498</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
         <v>498</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="1">
+      <c r="J63" s="9"/>
+      <c r="K63">
         <v>1</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
         <v>367</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63">
         <v>366</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63">
         <v>366</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63">
         <v>366</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63">
         <v>366</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63">
         <v>0</v>
       </c>
-      <c r="R63" s="1">
+      <c r="R63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>3</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>538</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>537</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>537</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
         <v>537</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
         <v>537</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="16"/>
-      <c r="K64" s="1">
+      <c r="J64" s="9"/>
+      <c r="K64">
         <v>1</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64">
         <v>267</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64">
         <v>266</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64">
         <v>266</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64">
         <v>266</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64">
         <v>266</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="Q64">
         <v>0</v>
       </c>
-      <c r="R64" s="1">
+      <c r="R64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>4</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>492</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>491</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>491</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>491</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
         <v>491</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <v>0</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" s="16"/>
-      <c r="K65" s="1">
+      <c r="J65" s="9"/>
+      <c r="K65">
         <v>1</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65">
         <v>193</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65">
         <v>192</v>
       </c>
-      <c r="N65" s="1">
+      <c r="N65">
         <v>192</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65">
         <v>192</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65">
         <v>192</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65">
         <v>0</v>
       </c>
-      <c r="R65" s="1">
+      <c r="R65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>5</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>760</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>759</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>759</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
         <v>759</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
         <v>759</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" s="16"/>
-      <c r="K66" s="1">
+      <c r="J66" s="9"/>
+      <c r="K66">
         <v>1</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66">
         <v>406</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66">
         <v>405</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66">
         <v>405</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66">
         <v>405</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66">
         <v>405</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66">
         <v>0</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R66">
         <v>0</v>
       </c>
-      <c r="T66" s="7" t="s">
+      <c r="T66" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="9"/>
-      <c r="Z66" s="7" t="s">
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="7"/>
+      <c r="Z66" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="9"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="7"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>6</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>707</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>706</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>706</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>706</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
         <v>706</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" s="16"/>
-      <c r="K67" s="1">
+      <c r="J67" s="9"/>
+      <c r="K67">
         <v>1</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
         <v>379</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67">
         <v>378</v>
       </c>
-      <c r="N67" s="1">
+      <c r="N67">
         <v>378</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67">
         <v>378</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67">
         <v>378</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="Q67">
         <v>0</v>
       </c>
-      <c r="R67" s="1">
+      <c r="R67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>7</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>549</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>548</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>548</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>548</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
         <v>548</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" s="16"/>
-      <c r="K68" s="1">
+      <c r="J68" s="9"/>
+      <c r="K68">
         <v>1</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68">
         <v>327</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68">
         <v>326</v>
       </c>
-      <c r="N68" s="1">
+      <c r="N68">
         <v>326</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68">
         <v>326</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P68">
         <v>326</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q68">
         <v>0</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>8</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>563</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>562</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>562</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>562</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
         <v>562</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" s="16"/>
-      <c r="K69" s="1">
+      <c r="J69" s="9"/>
+      <c r="K69">
         <v>1</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69">
         <v>345</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69">
         <v>344</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69">
         <v>344</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69">
         <v>344</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69">
         <v>344</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69">
         <v>0</v>
       </c>
-      <c r="R69" s="1">
+      <c r="R69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>9</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>322</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>321</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>321</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
         <v>321</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
         <v>321</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" s="16"/>
-      <c r="K70" s="1">
+      <c r="J70" s="9"/>
+      <c r="K70">
         <v>1</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70">
         <v>207</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70">
         <v>206</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70">
         <v>206</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70">
         <v>206</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P70">
         <v>206</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="Q70">
         <v>0</v>
       </c>
-      <c r="R70" s="1">
+      <c r="R70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="14" t="s">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="1">
-        <v>22</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1800</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1778</v>
-      </c>
-      <c r="E72" s="1">
-        <v>16</v>
-      </c>
-      <c r="F72" s="1">
-        <v>113</v>
-      </c>
-      <c r="G72" s="1">
-        <v>80.818181820000007</v>
-      </c>
-      <c r="H72" s="1">
-        <v>26.941977099999999</v>
-      </c>
-      <c r="I72" s="1">
-        <v>725.87012990000005</v>
-      </c>
-      <c r="J72" s="16"/>
-      <c r="K72" s="1">
-        <v>22</v>
-      </c>
-      <c r="L72" s="1">
-        <v>1800</v>
-      </c>
-      <c r="M72" s="1">
-        <v>1778</v>
-      </c>
-      <c r="N72" s="1">
-        <v>16</v>
-      </c>
-      <c r="O72" s="1">
-        <v>113</v>
-      </c>
-      <c r="P72" s="1">
-        <v>80.818181820000007</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>26.941977099999999</v>
-      </c>
-      <c r="R72" s="1">
-        <v>725.87012990000005</v>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>3163</v>
+      </c>
+      <c r="D72">
+        <v>3162</v>
+      </c>
+      <c r="E72">
+        <v>3162</v>
+      </c>
+      <c r="F72">
+        <v>3162</v>
+      </c>
+      <c r="G72">
+        <v>3162</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>6554</v>
+      </c>
+      <c r="M72">
+        <v>6552</v>
+      </c>
+      <c r="N72">
+        <v>3276</v>
+      </c>
+      <c r="O72">
+        <v>3276</v>
+      </c>
+      <c r="P72">
+        <v>3276</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
+        <f>SUM(B74:B93)/20</f>
         <v>1</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
+        <f t="shared" ref="C73:I73" si="6">SUM(C74:C93)/20</f>
         <v>488.9</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
+        <f t="shared" si="6"/>
         <v>487.9</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
+        <f t="shared" si="6"/>
         <v>487.9</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
+        <f t="shared" si="6"/>
         <v>487.9</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="2">
+        <f t="shared" si="6"/>
         <v>487.9</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="2">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="2">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J73" s="16"/>
-      <c r="K73" s="3">
+      <c r="J73" s="9"/>
+      <c r="K73" s="2">
+        <f>SUM(K74:K93)/20</f>
         <v>1</v>
       </c>
-      <c r="L73" s="3">
-        <v>347.45</v>
-      </c>
-      <c r="M73" s="3">
-        <v>346.45</v>
-      </c>
-      <c r="N73" s="3">
-        <v>346.45</v>
-      </c>
-      <c r="O73" s="3">
-        <v>346.45</v>
-      </c>
-      <c r="P73" s="3">
-        <v>346.45</v>
-      </c>
-      <c r="Q73" s="3">
+      <c r="L73" s="2">
+        <f>SUM(L74:L93)/20</f>
+        <v>317.39999999999998</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" ref="M73:R73" si="7">SUM(M74:M93)/20</f>
+        <v>316.39999999999998</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="7"/>
+        <v>316.39999999999998</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="7"/>
+        <v>316.39999999999998</v>
+      </c>
+      <c r="P73" s="2">
+        <f t="shared" si="7"/>
+        <v>316.39999999999998</v>
+      </c>
+      <c r="Q73" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R73" s="3">
+      <c r="R73" s="2">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>1</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>83</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>82</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>82</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>82</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
         <v>82</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" s="16"/>
-      <c r="K74" s="1">
+      <c r="J74" s="9"/>
+      <c r="K74">
         <v>1</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74">
         <v>48</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74">
         <v>47</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N74">
         <v>47</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74">
         <v>47</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P74">
         <v>47</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="Q74">
         <v>0</v>
       </c>
-      <c r="R74" s="1">
+      <c r="R74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>10</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>505</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>504</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75">
         <v>504</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
         <v>504</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
         <v>504</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" s="16"/>
-      <c r="K75" s="1">
+      <c r="J75" s="9"/>
+      <c r="K75">
         <v>1</v>
       </c>
-      <c r="L75" s="1">
-        <v>374</v>
-      </c>
-      <c r="M75" s="1">
-        <v>373</v>
-      </c>
-      <c r="N75" s="1">
-        <v>373</v>
-      </c>
-      <c r="O75" s="1">
-        <v>373</v>
-      </c>
-      <c r="P75" s="1">
-        <v>373</v>
-      </c>
-      <c r="Q75" s="1">
+      <c r="L75">
+        <v>353</v>
+      </c>
+      <c r="M75">
+        <v>352</v>
+      </c>
+      <c r="N75">
+        <v>352</v>
+      </c>
+      <c r="O75">
+        <v>352</v>
+      </c>
+      <c r="P75">
+        <v>352</v>
+      </c>
+      <c r="Q75">
         <v>0</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>11</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>526</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>525</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76">
         <v>525</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
         <v>525</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
         <v>525</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" s="16"/>
-      <c r="K76" s="1">
+      <c r="J76" s="9"/>
+      <c r="K76">
         <v>1</v>
       </c>
-      <c r="L76" s="1">
-        <v>448</v>
-      </c>
-      <c r="M76" s="1">
-        <v>447</v>
-      </c>
-      <c r="N76" s="1">
-        <v>447</v>
-      </c>
-      <c r="O76" s="1">
-        <v>447</v>
-      </c>
-      <c r="P76" s="1">
-        <v>447</v>
-      </c>
-      <c r="Q76" s="1">
+      <c r="L76">
+        <v>387</v>
+      </c>
+      <c r="M76">
+        <v>386</v>
+      </c>
+      <c r="N76">
+        <v>386</v>
+      </c>
+      <c r="O76">
+        <v>386</v>
+      </c>
+      <c r="P76">
+        <v>386</v>
+      </c>
+      <c r="Q76">
         <v>0</v>
       </c>
-      <c r="R76" s="1">
+      <c r="R76">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>12</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>499</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>498</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77">
         <v>498</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
         <v>498</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
         <v>498</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
         <v>0</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" s="16"/>
-      <c r="K77" s="1">
+      <c r="J77" s="9"/>
+      <c r="K77">
         <v>1</v>
       </c>
-      <c r="L77" s="1">
-        <v>407</v>
-      </c>
-      <c r="M77" s="1">
-        <v>406</v>
-      </c>
-      <c r="N77" s="1">
-        <v>406</v>
-      </c>
-      <c r="O77" s="1">
-        <v>406</v>
-      </c>
-      <c r="P77" s="1">
-        <v>406</v>
-      </c>
-      <c r="Q77" s="1">
+      <c r="L77">
+        <v>367</v>
+      </c>
+      <c r="M77">
+        <v>366</v>
+      </c>
+      <c r="N77">
+        <v>366</v>
+      </c>
+      <c r="O77">
+        <v>366</v>
+      </c>
+      <c r="P77">
+        <v>366</v>
+      </c>
+      <c r="Q77">
         <v>0</v>
       </c>
-      <c r="R77" s="1">
+      <c r="R77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>13</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>499</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>498</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78">
         <v>498</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
         <v>498</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
         <v>498</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" s="16"/>
-      <c r="K78" s="1">
+      <c r="J78" s="9"/>
+      <c r="K78">
         <v>1</v>
       </c>
-      <c r="L78" s="1">
-        <v>407</v>
-      </c>
-      <c r="M78" s="1">
-        <v>406</v>
-      </c>
-      <c r="N78" s="1">
-        <v>406</v>
-      </c>
-      <c r="O78" s="1">
-        <v>406</v>
-      </c>
-      <c r="P78" s="1">
-        <v>406</v>
-      </c>
-      <c r="Q78" s="1">
+      <c r="L78">
+        <v>367</v>
+      </c>
+      <c r="M78">
+        <v>366</v>
+      </c>
+      <c r="N78">
+        <v>366</v>
+      </c>
+      <c r="O78">
+        <v>366</v>
+      </c>
+      <c r="P78">
+        <v>366</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
-      <c r="R78" s="1">
+      <c r="R78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>14</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>499</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>498</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79">
         <v>498</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79">
         <v>498</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79">
         <v>498</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79" s="16"/>
-      <c r="K79" s="1">
+      <c r="J79" s="9"/>
+      <c r="K79">
         <v>1</v>
       </c>
-      <c r="L79" s="1">
-        <v>404</v>
-      </c>
-      <c r="M79" s="1">
-        <v>403</v>
-      </c>
-      <c r="N79" s="1">
-        <v>403</v>
-      </c>
-      <c r="O79" s="1">
-        <v>403</v>
-      </c>
-      <c r="P79" s="1">
-        <v>403</v>
-      </c>
-      <c r="Q79" s="1">
+      <c r="L79">
+        <v>365</v>
+      </c>
+      <c r="M79">
+        <v>364</v>
+      </c>
+      <c r="N79">
+        <v>364</v>
+      </c>
+      <c r="O79">
+        <v>364</v>
+      </c>
+      <c r="P79">
+        <v>364</v>
+      </c>
+      <c r="Q79">
         <v>0</v>
       </c>
-      <c r="R79" s="1">
+      <c r="R79">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>15</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>499</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>498</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80">
         <v>498</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80">
         <v>498</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80">
         <v>498</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80" s="16"/>
-      <c r="K80" s="1">
+      <c r="J80" s="9"/>
+      <c r="K80">
         <v>1</v>
       </c>
-      <c r="L80" s="1">
-        <v>404</v>
-      </c>
-      <c r="M80" s="1">
-        <v>403</v>
-      </c>
-      <c r="N80" s="1">
-        <v>403</v>
-      </c>
-      <c r="O80" s="1">
-        <v>403</v>
-      </c>
-      <c r="P80" s="1">
-        <v>403</v>
-      </c>
-      <c r="Q80" s="1">
+      <c r="L80">
+        <v>365</v>
+      </c>
+      <c r="M80">
+        <v>364</v>
+      </c>
+      <c r="N80">
+        <v>364</v>
+      </c>
+      <c r="O80">
+        <v>364</v>
+      </c>
+      <c r="P80">
+        <v>364</v>
+      </c>
+      <c r="Q80">
         <v>0</v>
       </c>
-      <c r="R80" s="1">
+      <c r="R80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>16</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>526</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>525</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81">
         <v>525</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81">
         <v>525</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
         <v>525</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81" s="16"/>
-      <c r="K81" s="1">
+      <c r="J81" s="9"/>
+      <c r="K81">
         <v>1</v>
       </c>
-      <c r="L81" s="1">
-        <v>448</v>
-      </c>
-      <c r="M81" s="1">
-        <v>447</v>
-      </c>
-      <c r="N81" s="1">
-        <v>447</v>
-      </c>
-      <c r="O81" s="1">
-        <v>447</v>
-      </c>
-      <c r="P81" s="1">
-        <v>447</v>
-      </c>
-      <c r="Q81" s="1">
+      <c r="L81">
+        <v>387</v>
+      </c>
+      <c r="M81">
+        <v>386</v>
+      </c>
+      <c r="N81">
+        <v>386</v>
+      </c>
+      <c r="O81">
+        <v>386</v>
+      </c>
+      <c r="P81">
+        <v>386</v>
+      </c>
+      <c r="Q81">
         <v>0</v>
       </c>
-      <c r="R81" s="1">
+      <c r="R81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>17</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>499</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82">
         <v>498</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82">
         <v>498</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82">
         <v>498</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82">
         <v>498</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82" s="16"/>
-      <c r="K82" s="1">
+      <c r="J82" s="9"/>
+      <c r="K82">
         <v>1</v>
       </c>
-      <c r="L82" s="1">
-        <v>407</v>
-      </c>
-      <c r="M82" s="1">
-        <v>406</v>
-      </c>
-      <c r="N82" s="1">
-        <v>406</v>
-      </c>
-      <c r="O82" s="1">
-        <v>406</v>
-      </c>
-      <c r="P82" s="1">
-        <v>406</v>
-      </c>
-      <c r="Q82" s="1">
+      <c r="L82">
+        <v>367</v>
+      </c>
+      <c r="M82">
+        <v>366</v>
+      </c>
+      <c r="N82">
+        <v>366</v>
+      </c>
+      <c r="O82">
+        <v>366</v>
+      </c>
+      <c r="P82">
+        <v>366</v>
+      </c>
+      <c r="Q82">
         <v>0</v>
       </c>
-      <c r="R82" s="1">
+      <c r="R82">
         <v>0</v>
       </c>
-      <c r="T82" s="7" t="s">
+      <c r="T82" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="9"/>
-      <c r="Z82" s="7" t="s">
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="7"/>
+      <c r="Z82" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AA82" s="8"/>
-      <c r="AB82" s="8"/>
-      <c r="AC82" s="9"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="7"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>18</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>499</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
         <v>498</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83">
         <v>498</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83">
         <v>498</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83">
         <v>498</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83" s="16"/>
-      <c r="K83" s="1">
+      <c r="J83" s="9"/>
+      <c r="K83">
         <v>1</v>
       </c>
-      <c r="L83" s="1">
-        <v>407</v>
-      </c>
-      <c r="M83" s="1">
-        <v>406</v>
-      </c>
-      <c r="N83" s="1">
-        <v>406</v>
-      </c>
-      <c r="O83" s="1">
-        <v>406</v>
-      </c>
-      <c r="P83" s="1">
-        <v>406</v>
-      </c>
-      <c r="Q83" s="1">
+      <c r="L83">
+        <v>367</v>
+      </c>
+      <c r="M83">
+        <v>366</v>
+      </c>
+      <c r="N83">
+        <v>366</v>
+      </c>
+      <c r="O83">
+        <v>366</v>
+      </c>
+      <c r="P83">
+        <v>366</v>
+      </c>
+      <c r="Q83">
         <v>0</v>
       </c>
-      <c r="R83" s="1">
+      <c r="R83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>19</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>499</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
         <v>498</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84">
         <v>498</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84">
         <v>498</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84">
         <v>498</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" s="16"/>
-      <c r="K84" s="1">
+      <c r="J84" s="9"/>
+      <c r="K84">
         <v>1</v>
       </c>
-      <c r="L84" s="1">
-        <v>407</v>
-      </c>
-      <c r="M84" s="1">
-        <v>406</v>
-      </c>
-      <c r="N84" s="1">
-        <v>406</v>
-      </c>
-      <c r="O84" s="1">
-        <v>406</v>
-      </c>
-      <c r="P84" s="1">
-        <v>406</v>
-      </c>
-      <c r="Q84" s="1">
+      <c r="L84">
+        <v>367</v>
+      </c>
+      <c r="M84">
+        <v>366</v>
+      </c>
+      <c r="N84">
+        <v>366</v>
+      </c>
+      <c r="O84">
+        <v>366</v>
+      </c>
+      <c r="P84">
+        <v>366</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="R84" s="1">
+      <c r="R84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>2</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>215</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>214</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85">
         <v>214</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85">
         <v>214</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85">
         <v>214</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" s="16"/>
-      <c r="K85" s="1">
+      <c r="J85" s="9"/>
+      <c r="K85">
         <v>1</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L85">
         <v>117</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M85">
         <v>116</v>
       </c>
-      <c r="N85" s="1">
+      <c r="N85">
         <v>116</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85">
         <v>116</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85">
         <v>116</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="Q85">
         <v>0</v>
       </c>
-      <c r="R85" s="1">
+      <c r="R85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>20</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>499</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>498</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86">
         <v>498</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86">
         <v>498</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86">
         <v>498</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" s="16"/>
-      <c r="K86" s="1">
+      <c r="J86" s="9"/>
+      <c r="K86">
         <v>1</v>
       </c>
-      <c r="L86" s="1">
-        <v>407</v>
-      </c>
-      <c r="M86" s="1">
-        <v>406</v>
-      </c>
-      <c r="N86" s="1">
-        <v>406</v>
-      </c>
-      <c r="O86" s="1">
-        <v>406</v>
-      </c>
-      <c r="P86" s="1">
-        <v>406</v>
-      </c>
-      <c r="Q86" s="1">
+      <c r="L86">
+        <v>367</v>
+      </c>
+      <c r="M86">
+        <v>366</v>
+      </c>
+      <c r="N86">
+        <v>366</v>
+      </c>
+      <c r="O86">
+        <v>366</v>
+      </c>
+      <c r="P86">
+        <v>366</v>
+      </c>
+      <c r="Q86">
         <v>0</v>
       </c>
-      <c r="R86" s="1">
+      <c r="R86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>3</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>538</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
         <v>537</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87">
         <v>537</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87">
         <v>537</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87">
         <v>537</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" s="16"/>
-      <c r="K87" s="1">
+      <c r="J87" s="9"/>
+      <c r="K87">
         <v>1</v>
       </c>
-      <c r="L87" s="1">
-        <v>284</v>
-      </c>
-      <c r="M87" s="1">
-        <v>283</v>
-      </c>
-      <c r="N87" s="1">
-        <v>283</v>
-      </c>
-      <c r="O87" s="1">
-        <v>283</v>
-      </c>
-      <c r="P87" s="1">
-        <v>283</v>
-      </c>
-      <c r="Q87" s="1">
+      <c r="L87">
+        <v>267</v>
+      </c>
+      <c r="M87">
+        <v>266</v>
+      </c>
+      <c r="N87">
+        <v>266</v>
+      </c>
+      <c r="O87">
+        <v>266</v>
+      </c>
+      <c r="P87">
+        <v>266</v>
+      </c>
+      <c r="Q87">
         <v>0</v>
       </c>
-      <c r="R87" s="1">
+      <c r="R87">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>4</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>492</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88">
         <v>491</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88">
         <v>491</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88">
         <v>491</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88">
         <v>491</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88" s="16"/>
-      <c r="K88" s="1">
+      <c r="J88" s="9"/>
+      <c r="K88">
         <v>1</v>
       </c>
-      <c r="L88" s="1">
-        <v>228</v>
-      </c>
-      <c r="M88" s="1">
-        <v>227</v>
-      </c>
-      <c r="N88" s="1">
-        <v>227</v>
-      </c>
-      <c r="O88" s="1">
-        <v>227</v>
-      </c>
-      <c r="P88" s="1">
-        <v>227</v>
-      </c>
-      <c r="Q88" s="1">
+      <c r="L88">
+        <v>193</v>
+      </c>
+      <c r="M88">
+        <v>192</v>
+      </c>
+      <c r="N88">
+        <v>192</v>
+      </c>
+      <c r="O88">
+        <v>192</v>
+      </c>
+      <c r="P88">
+        <v>192</v>
+      </c>
+      <c r="Q88">
         <v>0</v>
       </c>
-      <c r="R88" s="1">
+      <c r="R88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>5</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>760</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89">
         <v>759</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89">
         <v>759</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89">
         <v>759</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89">
         <v>759</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89" s="16"/>
-      <c r="K89" s="1">
+      <c r="J89" s="9"/>
+      <c r="K89">
         <v>1</v>
       </c>
-      <c r="L89" s="1">
-        <v>424</v>
-      </c>
-      <c r="M89" s="1">
-        <v>423</v>
-      </c>
-      <c r="N89" s="1">
-        <v>423</v>
-      </c>
-      <c r="O89" s="1">
-        <v>423</v>
-      </c>
-      <c r="P89" s="1">
-        <v>423</v>
-      </c>
-      <c r="Q89" s="1">
+      <c r="L89">
+        <v>406</v>
+      </c>
+      <c r="M89">
+        <v>405</v>
+      </c>
+      <c r="N89">
+        <v>405</v>
+      </c>
+      <c r="O89">
+        <v>405</v>
+      </c>
+      <c r="P89">
+        <v>405</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
       </c>
-      <c r="R89" s="1">
+      <c r="R89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>6</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>707</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90">
         <v>706</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90">
         <v>706</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90">
         <v>706</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90">
         <v>706</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90" s="16"/>
-      <c r="K90" s="1">
+      <c r="J90" s="9"/>
+      <c r="K90">
         <v>1</v>
       </c>
-      <c r="L90" s="1">
-        <v>414</v>
-      </c>
-      <c r="M90" s="1">
-        <v>413</v>
-      </c>
-      <c r="N90" s="1">
-        <v>413</v>
-      </c>
-      <c r="O90" s="1">
-        <v>413</v>
-      </c>
-      <c r="P90" s="1">
-        <v>413</v>
-      </c>
-      <c r="Q90" s="1">
+      <c r="L90">
+        <v>379</v>
+      </c>
+      <c r="M90">
+        <v>378</v>
+      </c>
+      <c r="N90">
+        <v>378</v>
+      </c>
+      <c r="O90">
+        <v>378</v>
+      </c>
+      <c r="P90">
+        <v>378</v>
+      </c>
+      <c r="Q90">
         <v>0</v>
       </c>
-      <c r="R90" s="1">
+      <c r="R90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>7</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>549</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
         <v>548</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91">
         <v>548</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91">
         <v>548</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91">
         <v>548</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91" s="16"/>
-      <c r="K91" s="1">
+      <c r="J91" s="9"/>
+      <c r="K91">
         <v>1</v>
       </c>
-      <c r="L91" s="1">
-        <v>355</v>
-      </c>
-      <c r="M91" s="1">
-        <v>354</v>
-      </c>
-      <c r="N91" s="1">
-        <v>354</v>
-      </c>
-      <c r="O91" s="1">
-        <v>354</v>
-      </c>
-      <c r="P91" s="1">
-        <v>354</v>
-      </c>
-      <c r="Q91" s="1">
+      <c r="L91">
+        <v>327</v>
+      </c>
+      <c r="M91">
+        <v>326</v>
+      </c>
+      <c r="N91">
+        <v>326</v>
+      </c>
+      <c r="O91">
+        <v>326</v>
+      </c>
+      <c r="P91">
+        <v>326</v>
+      </c>
+      <c r="Q91">
         <v>0</v>
       </c>
-      <c r="R91" s="1">
+      <c r="R91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>8</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>563</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
         <v>562</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92">
         <v>562</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92">
         <v>562</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92">
         <v>562</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92" s="16"/>
-      <c r="K92" s="1">
+      <c r="J92" s="9"/>
+      <c r="K92">
         <v>1</v>
       </c>
-      <c r="L92" s="1">
-        <v>352</v>
-      </c>
-      <c r="M92" s="1">
-        <v>351</v>
-      </c>
-      <c r="N92" s="1">
-        <v>351</v>
-      </c>
-      <c r="O92" s="1">
-        <v>351</v>
-      </c>
-      <c r="P92" s="1">
-        <v>351</v>
-      </c>
-      <c r="Q92" s="1">
+      <c r="L92">
+        <v>345</v>
+      </c>
+      <c r="M92">
+        <v>344</v>
+      </c>
+      <c r="N92">
+        <v>344</v>
+      </c>
+      <c r="O92">
+        <v>344</v>
+      </c>
+      <c r="P92">
+        <v>344</v>
+      </c>
+      <c r="Q92">
         <v>0</v>
       </c>
-      <c r="R92" s="1">
+      <c r="R92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>9</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>322</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>321</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93">
         <v>321</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93">
         <v>321</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93">
         <v>321</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="J93" s="16"/>
-      <c r="K93" s="1">
+      <c r="J93" s="9"/>
+      <c r="K93">
         <v>1</v>
       </c>
-      <c r="L93" s="1">
+      <c r="L93">
         <v>207</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M93">
         <v>206</v>
       </c>
-      <c r="N93" s="1">
+      <c r="N93">
         <v>206</v>
       </c>
-      <c r="O93" s="1">
+      <c r="O93">
         <v>206</v>
       </c>
-      <c r="P93" s="1">
+      <c r="P93">
         <v>206</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q93">
         <v>0</v>
       </c>
-      <c r="R93" s="1">
+      <c r="R93">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="20:29" x14ac:dyDescent="0.2">
-      <c r="T98" s="7" t="s">
+      <c r="T98" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="9"/>
-      <c r="Z98" s="7" t="s">
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="7"/>
+      <c r="Z98" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AA98" s="8"/>
-      <c r="AB98" s="8"/>
-      <c r="AC98" s="9"/>
+      <c r="AA98" s="6"/>
+      <c r="AB98" s="6"/>
+      <c r="AC98" s="7"/>
     </row>
     <row r="114" spans="20:29" x14ac:dyDescent="0.2">
-      <c r="T114" s="7" t="s">
+      <c r="T114" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="9"/>
-      <c r="Z114" s="10" t="s">
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="7"/>
+      <c r="Z114" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AA114" s="11"/>
-      <c r="AB114" s="11"/>
-      <c r="AC114" s="12"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="14"/>
+      <c r="AC114" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="K71:R71"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="J1:J93"/>
+    <mergeCell ref="AE2:AO2"/>
+    <mergeCell ref="AQ2:BA2"/>
+    <mergeCell ref="T98:W98"/>
+    <mergeCell ref="Z98:AC98"/>
+    <mergeCell ref="T114:W114"/>
+    <mergeCell ref="Z114:AC114"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="Z82:AC82"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="Z50:AC50"/>
@@ -31040,14 +31086,15 @@
     <mergeCell ref="T34:W34"/>
     <mergeCell ref="Z34:AC34"/>
     <mergeCell ref="T50:W50"/>
-    <mergeCell ref="AE2:AO2"/>
-    <mergeCell ref="AQ2:BA2"/>
-    <mergeCell ref="T98:W98"/>
-    <mergeCell ref="Z98:AC98"/>
-    <mergeCell ref="T114:W114"/>
-    <mergeCell ref="Z114:AC114"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="Z82:AC82"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="K71:R71"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="J1:J93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
